--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt2</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt2</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H2">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>0.02507950189122222</v>
+        <v>4.978006575085556</v>
       </c>
       <c r="R2">
-        <v>0.225715517021</v>
+        <v>44.80205917577</v>
       </c>
       <c r="S2">
-        <v>0.0004237088845011737</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="T2">
-        <v>0.0004237088845011737</v>
+        <v>0.07700398964630729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H3">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
-        <v>0.05182705875344444</v>
+        <v>8.561327444777223</v>
       </c>
       <c r="R3">
-        <v>0.4664435287809999</v>
+        <v>77.05194700299501</v>
       </c>
       <c r="S3">
-        <v>0.0008755989391912343</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="T3">
-        <v>0.0008755989391912343</v>
+        <v>0.1324338085883186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H4">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>0.04491729344622222</v>
+        <v>9.790380694371667</v>
       </c>
       <c r="R4">
-        <v>0.4042556410159999</v>
+        <v>88.113426249345</v>
       </c>
       <c r="S4">
-        <v>0.0007588610165966577</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="T4">
-        <v>0.0007588610165966577</v>
+        <v>0.1514458372546134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H5">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>0.01956398662644444</v>
+        <v>2.101344032006112</v>
       </c>
       <c r="R5">
-        <v>0.1760758796379999</v>
+        <v>18.912096288055</v>
       </c>
       <c r="S5">
-        <v>0.0003305262993595555</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="T5">
-        <v>0.0003305262993595555</v>
+        <v>0.03250535563648733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H6">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>0.1606596144018889</v>
+        <v>33.32726754119278</v>
       </c>
       <c r="R6">
-        <v>1.445936529617</v>
+        <v>299.945407870735</v>
       </c>
       <c r="S6">
-        <v>0.002714284609713019</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="T6">
-        <v>0.002714284609713019</v>
+        <v>0.5155341854158992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H7">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I7">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>0.05411297013011111</v>
+        <v>5.887760206921111</v>
       </c>
       <c r="R7">
-        <v>0.4870167311709999</v>
+        <v>52.98984186229</v>
       </c>
       <c r="S7">
-        <v>0.0009142185642410832</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="T7">
-        <v>0.0009142185642410832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H8">
-        <v>5.303765</v>
-      </c>
-      <c r="I8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.343367666666667</v>
-      </c>
-      <c r="N8">
-        <v>7.030103</v>
-      </c>
-      <c r="O8">
-        <v>0.07041630712807322</v>
-      </c>
-      <c r="P8">
-        <v>0.07041630712807322</v>
-      </c>
-      <c r="Q8">
-        <v>4.142890470866111</v>
-      </c>
-      <c r="R8">
-        <v>37.286014237795</v>
-      </c>
-      <c r="S8">
-        <v>0.06999259824357204</v>
-      </c>
-      <c r="T8">
-        <v>0.06999259824357204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.303765</v>
-      </c>
-      <c r="I9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.842594333333333</v>
-      </c>
-      <c r="N9">
-        <v>14.527783</v>
-      </c>
-      <c r="O9">
-        <v>0.1455160514174545</v>
-      </c>
-      <c r="P9">
-        <v>0.1455160514174545</v>
-      </c>
-      <c r="Q9">
-        <v>8.561327444777223</v>
-      </c>
-      <c r="R9">
-        <v>77.05194700299501</v>
-      </c>
-      <c r="S9">
-        <v>0.1446404524782632</v>
-      </c>
-      <c r="T9">
-        <v>0.1446404524782632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H10">
-        <v>5.303765</v>
-      </c>
-      <c r="I10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.196962666666667</v>
-      </c>
-      <c r="N10">
-        <v>12.590888</v>
-      </c>
-      <c r="O10">
-        <v>0.1261153409022843</v>
-      </c>
-      <c r="P10">
-        <v>0.1261153409022843</v>
-      </c>
-      <c r="Q10">
-        <v>7.419901232591112</v>
-      </c>
-      <c r="R10">
-        <v>66.77911109332</v>
-      </c>
-      <c r="S10">
-        <v>0.1253564798856876</v>
-      </c>
-      <c r="T10">
-        <v>0.1253564798856876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H11">
-        <v>5.303765</v>
-      </c>
-      <c r="I11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.828011333333333</v>
-      </c>
-      <c r="N11">
-        <v>5.484033999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.05493026523861683</v>
-      </c>
-      <c r="P11">
-        <v>0.05493026523861682</v>
-      </c>
-      <c r="Q11">
-        <v>3.231780843112222</v>
-      </c>
-      <c r="R11">
-        <v>29.08602758801</v>
-      </c>
-      <c r="S11">
-        <v>0.05459973893925727</v>
-      </c>
-      <c r="T11">
-        <v>0.05459973893925726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H12">
-        <v>5.303765</v>
-      </c>
-      <c r="I12">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J12">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>15.01164366666667</v>
-      </c>
-      <c r="N12">
-        <v>45.034931</v>
-      </c>
-      <c r="O12">
-        <v>0.451087776777607</v>
-      </c>
-      <c r="P12">
-        <v>0.451087776777607</v>
-      </c>
-      <c r="Q12">
-        <v>26.53941009057944</v>
-      </c>
-      <c r="R12">
-        <v>238.854690815215</v>
-      </c>
-      <c r="S12">
-        <v>0.448373492167894</v>
-      </c>
-      <c r="T12">
-        <v>0.448373492167894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H13">
-        <v>5.303765</v>
-      </c>
-      <c r="I13">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J13">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.056184333333333</v>
-      </c>
-      <c r="N13">
-        <v>15.168553</v>
-      </c>
-      <c r="O13">
-        <v>0.151934258535964</v>
-      </c>
-      <c r="P13">
-        <v>0.151934258535964</v>
-      </c>
-      <c r="Q13">
-        <v>8.938937833560557</v>
-      </c>
-      <c r="R13">
-        <v>80.450440502045</v>
-      </c>
-      <c r="S13">
-        <v>0.1510200399717229</v>
-      </c>
-      <c r="T13">
-        <v>0.1510200399717229</v>
+        <v>0.09107682345837424</v>
       </c>
     </row>
   </sheetData>
